--- a/3.14/left.xlsx
+++ b/3.14/left.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="21600" windowHeight="10020"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="21600" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="106">
   <si>
     <t>Part 1: Difference between Discrete and Continuous Distributions</t>
   </si>
@@ -333,9 +333,6 @@
   </si>
   <si>
     <t>Indent</t>
-  </si>
-  <si>
-    <t>Number of Pages</t>
   </si>
   <si>
     <t>Video 1</t>
@@ -665,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -677,7 +674,7 @@
     <col min="2" max="2" width="55.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>96</v>
       </c>
@@ -711,11 +708,8 @@
       <c r="L1" t="s">
         <v>105</v>
       </c>
-      <c r="M1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>"&lt;a href='"&amp;H2&amp;".html'"&amp;I2&amp;"&gt;"</f>
         <v>&lt;a href='3.14_1.html'&gt;</v>
@@ -746,14 +740,11 @@
         <f>IF(ISNUMBER(SEARCH("_",G2))," class='indent'","")</f>
         <v/>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="J2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A57" si="0">"&lt;a href='"&amp;H3&amp;".html'"&amp;I3&amp;"&gt;"</f>
         <v>&lt;a href='3.14_2.html'&gt;</v>
@@ -784,14 +775,11 @@
         <f t="shared" ref="I3:I57" si="3">IF(ISNUMBER(SEARCH("_",G3))," class='indent'","")</f>
         <v/>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="J3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_2_1.html' class='indent'&gt;</v>
@@ -822,14 +810,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="J4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_2_2.html' class='indent'&gt;</v>
@@ -860,14 +845,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_2_3.html' class='indent'&gt;</v>
@@ -898,14 +880,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_2_4.html' class='indent'&gt;</v>
@@ -936,14 +915,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_2_5.html' class='indent'&gt;</v>
@@ -974,20 +950,17 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J8">
-        <v>2</v>
+      <c r="J8" t="s">
+        <v>63</v>
       </c>
       <c r="K8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_2_6.html' class='indent'&gt;</v>
@@ -1018,14 +991,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_2_7.html' class='indent'&gt;</v>
@@ -1056,11 +1026,8 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_3.html'&gt;</v>
@@ -1091,14 +1058,11 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_3_1.html' class='indent'&gt;</v>
@@ -1129,14 +1093,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_3_2.html' class='indent'&gt;</v>
@@ -1167,14 +1128,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_3_3.html' class='indent'&gt;</v>
@@ -1205,14 +1163,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_3_4.html' class='indent'&gt;</v>
@@ -1243,11 +1198,8 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_4.html'&gt;</v>
@@ -1278,14 +1230,11 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="J16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_4_1.html' class='indent'&gt;</v>
@@ -1316,14 +1265,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="J17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_4_2.html' class='indent'&gt;</v>
@@ -1354,14 +1300,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="J18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_4_3.html' class='indent'&gt;</v>
@@ -1392,17 +1335,14 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J19">
-        <v>2</v>
+      <c r="J19" t="s">
+        <v>74</v>
       </c>
       <c r="K19" t="s">
-        <v>74</v>
-      </c>
-      <c r="L19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_4_4.html' class='indent'&gt;</v>
@@ -1433,14 +1373,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="J20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_4_5.html' class='indent'&gt;</v>
@@ -1471,14 +1408,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="J21" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_4_6.html' class='indent'&gt;</v>
@@ -1509,11 +1443,8 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_5.html'&gt;</v>
@@ -1544,14 +1475,11 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="J23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_5_1.html' class='indent'&gt;</v>
@@ -1582,14 +1510,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="J24" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_5_2.html' class='indent'&gt;</v>
@@ -1620,14 +1545,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="J25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_5_3.html' class='indent'&gt;</v>
@@ -1658,14 +1580,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="J26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_5_4.html' class='indent'&gt;</v>
@@ -1696,11 +1615,8 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_6.html'&gt;</v>
@@ -1731,14 +1647,11 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="J28" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_6_1.html' class='indent'&gt;</v>
@@ -1769,14 +1682,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="J29" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_6_2.html' class='indent'&gt;</v>
@@ -1807,15 +1717,12 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30" t="str">
+      <c r="J30" t="str">
         <f>"-QZ5ieG18ic"</f>
         <v>-QZ5ieG18ic</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_6_3.html' class='indent'&gt;</v>
@@ -1846,14 +1753,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J31">
-        <v>2</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="J31" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_6_4.html' class='indent'&gt;</v>
@@ -1884,11 +1788,8 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_7.html'&gt;</v>
@@ -1919,14 +1820,11 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="J33" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_7_1.html' class='indent'&gt;</v>
@@ -1957,14 +1855,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34" t="s">
+      <c r="J34" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_7_2.html' class='indent'&gt;</v>
@@ -1995,14 +1890,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="J35" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_7_3.html' class='indent'&gt;</v>
@@ -2033,14 +1925,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36" t="s">
+      <c r="J36" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_7_4.html' class='indent'&gt;</v>
@@ -2071,14 +1960,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37" t="s">
+      <c r="J37" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_7_5.html' class='indent'&gt;</v>
@@ -2109,14 +1995,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38" t="s">
+      <c r="J38" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_7_6.html' class='indent'&gt;</v>
@@ -2147,14 +2030,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39" t="s">
+      <c r="J39" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_7_7.html' class='indent'&gt;</v>
@@ -2185,11 +2065,8 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_8.html'&gt;</v>
@@ -2220,14 +2097,11 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41" t="s">
+      <c r="J41" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_8_1.html' class='indent'&gt;</v>
@@ -2258,14 +2132,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42" t="s">
+      <c r="J42" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_8_2.html' class='indent'&gt;</v>
@@ -2296,14 +2167,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="J43" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_8_3.html' class='indent'&gt;</v>
@@ -2334,14 +2202,11 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44" t="s">
+      <c r="J44" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_8_4.html' class='indent'&gt;</v>
@@ -2372,11 +2237,8 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_8_5.html' class='indent'&gt;</v>
@@ -2407,11 +2269,8 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_8_6.html' class='indent'&gt;</v>
@@ -2442,11 +2301,8 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_8_7.html' class='indent'&gt;</v>
@@ -2477,11 +2333,8 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_9.html'&gt;</v>
@@ -2512,11 +2365,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_9_1.html' class='indent'&gt;</v>
@@ -2547,11 +2397,8 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_9_2.html' class='indent'&gt;</v>
@@ -2582,11 +2429,8 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_10.html'&gt;</v>
@@ -2617,11 +2461,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_10_1.html' class='indent'&gt;</v>
@@ -2652,11 +2493,8 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_11.html'&gt;</v>
@@ -2687,11 +2525,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_11_1.html' class='indent'&gt;</v>
@@ -2722,11 +2557,8 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_11_2.html' class='indent'&gt;</v>
@@ -2757,11 +2589,8 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.14_11_3.html' class='indent'&gt;</v>
@@ -2791,9 +2620,6 @@
       <c r="I57" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/3.14/left.xlsx
+++ b/3.14/left.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake\OneDrive\Documents\GitHub\students.mathsnz.com\3.14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakew\OneDrive\Documents\GitHub\students.mathsnz.com\3.14\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="21600" windowHeight="10020"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="21600" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -197,24 +197,9 @@
     <t>Part 6.3: Linear Combinations</t>
   </si>
   <si>
-    <t>ylkkm47HFVM</t>
-  </si>
-  <si>
-    <t>bKhvecxrMLQ</t>
-  </si>
-  <si>
-    <t>JE9Y_rIfssg</t>
-  </si>
-  <si>
-    <t>Xb0kJMdAss0</t>
-  </si>
-  <si>
     <t>gAm2jQJrOAA</t>
   </si>
   <si>
-    <t>uG4Oq09Qvl0</t>
-  </si>
-  <si>
     <t>3nsv8Ccn9Yw</t>
   </si>
   <si>
@@ -239,15 +224,6 @@
     <t>P03-DFp71zg</t>
   </si>
   <si>
-    <t>7ur_VC5s9sM</t>
-  </si>
-  <si>
-    <t>YYrWuXPn2xI</t>
-  </si>
-  <si>
-    <t>PQE6CgIlF5g</t>
-  </si>
-  <si>
     <t>8GMUbi99tQw</t>
   </si>
   <si>
@@ -281,9 +257,6 @@
     <t>eL3hrHhYnl4</t>
   </si>
   <si>
-    <t>uEygkYXKPB4</t>
-  </si>
-  <si>
     <t>RSIw3AUMa8Q</t>
   </si>
   <si>
@@ -342,12 +315,39 @@
   </si>
   <si>
     <t>Video 3</t>
+  </si>
+  <si>
+    <t>XhCNnrervmU</t>
+  </si>
+  <si>
+    <t>vPEqvAqNsO4</t>
+  </si>
+  <si>
+    <t>WsVXA3hFS48</t>
+  </si>
+  <si>
+    <t>Fqt3HyWUrV0</t>
+  </si>
+  <si>
+    <t>tZYNf9FqlRw</t>
+  </si>
+  <si>
+    <t>2Lvx1T_lSzA</t>
+  </si>
+  <si>
+    <t>1Kmq0IdNrng</t>
+  </si>
+  <si>
+    <t>dQfC_VsiZVc</t>
+  </si>
+  <si>
+    <t>ZkGwtTK6lIE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -357,12 +357,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -377,11 +383,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,11 +668,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -676,37 +683,37 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" t="s">
         <v>96</v>
-      </c>
-      <c r="B1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -740,8 +747,8 @@
         <f>IF(ISNUMBER(SEARCH("_",G2))," class='indent'","")</f>
         <v/>
       </c>
-      <c r="J2" t="s">
-        <v>57</v>
+      <c r="J2" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -775,8 +782,8 @@
         <f t="shared" ref="I3:I57" si="3">IF(ISNUMBER(SEARCH("_",G3))," class='indent'","")</f>
         <v/>
       </c>
-      <c r="J3" t="s">
-        <v>58</v>
+      <c r="J3" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -810,8 +817,8 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J4" t="s">
-        <v>59</v>
+      <c r="J4" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -845,8 +852,8 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J5" t="s">
-        <v>60</v>
+      <c r="J5" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -881,7 +888,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -915,8 +922,8 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J7" t="s">
-        <v>62</v>
+      <c r="J7" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -951,13 +958,13 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -992,7 +999,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -1059,7 +1066,7 @@
         <v/>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -1094,7 +1101,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -1129,7 +1136,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -1164,7 +1171,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -1230,8 +1237,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J16" t="s">
-        <v>71</v>
+      <c r="J16" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -1265,8 +1272,8 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J17" t="s">
-        <v>72</v>
+      <c r="J17" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -1300,8 +1307,8 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J18" t="s">
-        <v>73</v>
+      <c r="J18" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -1336,10 +1343,10 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J19" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K19" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -1374,7 +1381,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J20" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -1409,7 +1416,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J21" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -1476,7 +1483,7 @@
         <v/>
       </c>
       <c r="J23" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -1511,7 +1518,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J24" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -1546,7 +1553,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J25" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -1581,7 +1588,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J26" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -1648,7 +1655,7 @@
         <v/>
       </c>
       <c r="J28" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -1683,7 +1690,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J29" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -1754,7 +1761,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J31" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -1820,8 +1827,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J33" t="s">
-        <v>85</v>
+      <c r="J33" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
@@ -1856,7 +1863,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J34" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
@@ -1891,7 +1898,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J35" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
@@ -1926,7 +1933,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J36" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
@@ -1961,7 +1968,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J37" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
@@ -1996,7 +2003,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J38" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
@@ -2031,7 +2038,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J39" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
@@ -2098,7 +2105,7 @@
         <v/>
       </c>
       <c r="J41" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
@@ -2133,7 +2140,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J42" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
@@ -2168,7 +2175,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J43" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
@@ -2203,7 +2210,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J44" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
@@ -2624,5 +2631,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/3.14/left.xlsx
+++ b/3.14/left.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakew\OneDrive\Documents\GitHub\students.mathsnz.com\3.14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakew\Documents\GitHub\students.mathsnz.com\3.14\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -335,13 +335,13 @@
     <t>2Lvx1T_lSzA</t>
   </si>
   <si>
-    <t>1Kmq0IdNrng</t>
-  </si>
-  <si>
     <t>dQfC_VsiZVc</t>
   </si>
   <si>
     <t>ZkGwtTK6lIE</t>
+  </si>
+  <si>
+    <t>Ir36C4dsiYg</t>
   </si>
 </sst>
 </file>
@@ -672,7 +672,7 @@
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1273,7 +1273,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -1308,7 +1308,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -1828,7 +1828,7 @@
         <v/>
       </c>
       <c r="J33" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">

--- a/3.14/left.xlsx
+++ b/3.14/left.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="21600" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="12320" windowHeight="5750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -200,30 +200,9 @@
     <t>gAm2jQJrOAA</t>
   </si>
   <si>
-    <t>3nsv8Ccn9Yw</t>
-  </si>
-  <si>
-    <t>7IBHA8eR-tU</t>
-  </si>
-  <si>
     <t>9WjRVfYzF7E</t>
   </si>
   <si>
-    <t>Ir0huMMPM-Y</t>
-  </si>
-  <si>
-    <t>DsMRX7LGKLI</t>
-  </si>
-  <si>
-    <t>aAlvDBFEjNo</t>
-  </si>
-  <si>
-    <t>aCV7icVR7n0</t>
-  </si>
-  <si>
-    <t>P03-DFp71zg</t>
-  </si>
-  <si>
     <t>8GMUbi99tQw</t>
   </si>
   <si>
@@ -342,6 +321,27 @@
   </si>
   <si>
     <t>Ir36C4dsiYg</t>
+  </si>
+  <si>
+    <t>I8AGxdwAVik</t>
+  </si>
+  <si>
+    <t>8cR_VSIvbCA</t>
+  </si>
+  <si>
+    <t>uPEEHz1fEYg</t>
+  </si>
+  <si>
+    <t>Gjt-8ajrMhU</t>
+  </si>
+  <si>
+    <t>I5zPNA_q5_s</t>
+  </si>
+  <si>
+    <t>YpC1uqtZBnY</t>
+  </si>
+  <si>
+    <t>IGiUyhjKJ4c</t>
   </si>
 </sst>
 </file>
@@ -357,7 +357,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,6 +367,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,12 +389,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -683,37 +690,37 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" t="s">
         <v>87</v>
       </c>
-      <c r="B1" t="s">
+      <c r="K1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>89</v>
-      </c>
-      <c r="E1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -748,7 +755,7 @@
         <v/>
       </c>
       <c r="J2" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -783,7 +790,7 @@
         <v/>
       </c>
       <c r="J3" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -818,7 +825,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -853,7 +860,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -887,7 +894,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -923,7 +930,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -957,14 +964,14 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
-      </c>
-      <c r="L8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -998,8 +1005,8 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J9" t="s">
-        <v>61</v>
+      <c r="J9" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -1065,8 +1072,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J11" t="s">
-        <v>62</v>
+      <c r="J11" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -1100,8 +1107,8 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J12" t="s">
-        <v>63</v>
+      <c r="J12" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -1135,8 +1142,8 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J13" t="s">
-        <v>64</v>
+      <c r="J13" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -1170,8 +1177,8 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> class='indent'</v>
       </c>
-      <c r="J14" t="s">
-        <v>65</v>
+      <c r="J14" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -1238,7 +1245,7 @@
         <v/>
       </c>
       <c r="J16" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -1273,7 +1280,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -1308,7 +1315,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -1343,10 +1350,10 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J19" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="K19" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -1381,7 +1388,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J20" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -1416,7 +1423,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J21" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -1483,7 +1490,7 @@
         <v/>
       </c>
       <c r="J23" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -1518,7 +1525,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J24" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -1553,7 +1560,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J25" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -1588,7 +1595,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J26" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -1655,7 +1662,7 @@
         <v/>
       </c>
       <c r="J28" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -1690,7 +1697,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J29" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -1761,7 +1768,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J31" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -1828,7 +1835,7 @@
         <v/>
       </c>
       <c r="J33" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
@@ -1863,7 +1870,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J34" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
@@ -1898,7 +1905,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J35" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
@@ -1933,7 +1940,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J36" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
@@ -1968,7 +1975,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J37" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
@@ -2003,7 +2010,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J38" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
@@ -2038,7 +2045,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J39" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
@@ -2105,7 +2112,7 @@
         <v/>
       </c>
       <c r="J41" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
@@ -2140,7 +2147,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J42" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
@@ -2175,7 +2182,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J43" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
@@ -2210,7 +2217,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="J44" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
